--- a/Emissions/emissions_analisisComparativo_cnn_csnn_18062024_0003_10epoca.xlsx
+++ b/Emissions/emissions_analisisComparativo_cnn_csnn_18062024_0003_10epoca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MASTER UOC\AULAS_4TO_SEMESTRE\TFM\GitHub_AplicationSNN\Emissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4784FE51-E2ED-4EAA-9126-D56F92BEE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADAA2B-D7CC-4E8A-8ADB-890A9CED9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4320" windowWidth="22125" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emissions_cnn_csnn" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>timestamp</t>
   </si>
@@ -180,15 +180,6 @@
     <t>1.831294031895025e-06</t>
   </si>
   <si>
-    <t>0.3443651484244397</t>
-  </si>
-  <si>
-    <t>0.04828021363506495</t>
-  </si>
-  <si>
-    <t>0.39264536205950473</t>
-  </si>
-  <si>
     <t>2024-06-16T18:26:27</t>
   </si>
   <si>
@@ -199,15 +190,6 @@
   </si>
   <si>
     <t>1.8312692223812155e-06</t>
-  </si>
-  <si>
-    <t>0.26217369035962645</t>
-  </si>
-  <si>
-    <t>0.0367534585046604</t>
-  </si>
-  <si>
-    <t>0.29892714886428606</t>
   </si>
   <si>
     <t>DURACION(h)</t>
@@ -251,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -757,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -766,7 +748,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1124,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1126,7 @@
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1175,43 +1158,43 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>3</v>
@@ -1311,17 +1294,17 @@
       <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
+      <c r="N2" s="6">
+        <v>0.34436514842443899</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4.8280213635064899E-2</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.39264536205950401</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>25</v>
@@ -1379,16 +1362,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6">
         <f>E3/60</f>
@@ -1406,7 +1389,7 @@
         <v>40.670234311581503</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>22</v>
@@ -1417,17 +1400,17 @@
       <c r="M3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>58</v>
+      <c r="N3" s="6">
+        <v>0.26217369035962601</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3.67534585046604E-2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.29892714886428601</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>25</v>
